--- a/docs/units.xlsx
+++ b/docs/units.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="165">
   <si>
     <t>фемто</t>
   </si>
@@ -546,6 +546,21 @@
   </si>
   <si>
     <t>AU</t>
+  </si>
+  <si>
+    <t>санти</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>деци</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -633,7 +648,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,6 +659,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -701,7 +722,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -777,6 +798,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,13 +1098,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT29"/>
+  <dimension ref="A1:AT31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AU17" sqref="AU17"/>
+      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,298 +1665,374 @@
       <c r="AT7" s="5"/>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH8" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK8" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL8" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN8" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO8" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP8" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS8" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="A8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
+      <c r="AQ8" s="27"/>
+      <c r="AR8" s="31"/>
+      <c r="AS8" s="31"/>
+      <c r="AT8" s="31"/>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="31"/>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN10" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO10" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="6" t="s">
+      <c r="K11" s="1"/>
+      <c r="L11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="M11" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N11" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O11" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AR9" s="5"/>
-      <c r="AS9" s="5" t="s">
+      <c r="S11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K12" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="8" t="s">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="T12" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="U10" s="8" t="s">
+      <c r="U12" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="V10" s="8" t="s">
+      <c r="V12" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="W10" s="8" t="s">
+      <c r="W12" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="Y10" s="8" t="s">
+      <c r="Y12" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="Z10" s="8" t="s">
+      <c r="Z12" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AA10" s="8" t="s">
+      <c r="AA12" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="AB10" s="8" t="s">
+      <c r="AB12" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="AD10" s="8" t="s">
+      <c r="AD12" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="AE10" s="8" t="s">
+      <c r="AE12" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AF10" s="8" t="s">
+      <c r="AF12" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AG10" s="8" t="s">
+      <c r="AG12" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AH10" s="8" t="s">
+      <c r="AH12" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="AJ10" s="8" t="s">
+      <c r="AJ12" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AK10" s="8" t="s">
+      <c r="AK12" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="5"/>
-    </row>
-    <row r="12" spans="1:46" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="20" t="s">
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+    </row>
+    <row r="14" spans="1:46" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="AN12" s="22"/>
-      <c r="AO12" s="22"/>
-      <c r="AP12" s="22"/>
-    </row>
-    <row r="13" spans="1:46" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="AN13" s="22"/>
-      <c r="AO13" s="22"/>
-      <c r="AP13" s="22"/>
-      <c r="AS13" s="19"/>
-    </row>
-    <row r="14" spans="1:46" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="23" t="s">
-        <v>141</v>
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
-      <c r="N14" s="24"/>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
       <c r="AN14" s="22"/>
       <c r="AO14" s="22"/>
       <c r="AP14" s="22"/>
-      <c r="AS14" s="19"/>
     </row>
     <row r="15" spans="1:46" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="23" t="s">
-        <v>142</v>
+      <c r="C15" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
-      <c r="N15" s="24"/>
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
@@ -1929,6 +2042,9 @@
       <c r="AS15" s="19"/>
     </row>
     <row r="16" spans="1:46" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="23" t="s">
+        <v>141</v>
+      </c>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="N16" s="24"/>
@@ -1941,8 +2057,8 @@
       <c r="AS16" s="19"/>
     </row>
     <row r="17" spans="3:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="18" t="s">
-        <v>158</v>
+      <c r="C17" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
@@ -1955,10 +2071,7 @@
       <c r="AP17" s="22"/>
       <c r="AS17" s="19"/>
     </row>
-    <row r="18" spans="3:45" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
-        <v>147</v>
-      </c>
+    <row r="18" spans="3:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
       <c r="N18" s="24"/>
@@ -1971,6 +2084,9 @@
       <c r="AS18" s="19"/>
     </row>
     <row r="19" spans="3:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="18" t="s">
+        <v>158</v>
+      </c>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
       <c r="N19" s="24"/>
@@ -1982,29 +2098,32 @@
       <c r="AP19" s="22"/>
       <c r="AS19" s="19"/>
     </row>
-    <row r="20" spans="3:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="N20" s="17"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="AN20" s="16"/>
-      <c r="AO20" s="16"/>
-      <c r="AP20" s="16"/>
-      <c r="AS20" s="14"/>
-    </row>
-    <row r="21" spans="3:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="N21" s="17"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="AN21" s="16"/>
-      <c r="AO21" s="16"/>
-      <c r="AP21" s="16"/>
-      <c r="AS21" s="14"/>
+    <row r="20" spans="3:45" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="N20" s="24"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="22"/>
+      <c r="AP20" s="22"/>
+      <c r="AS20" s="19"/>
+    </row>
+    <row r="21" spans="3:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="N21" s="24"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="22"/>
+      <c r="AP21" s="22"/>
+      <c r="AS21" s="19"/>
     </row>
     <row r="22" spans="3:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K22" s="15"/>
@@ -2102,10 +2221,34 @@
       <c r="AP29" s="16"/>
       <c r="AS29" s="14"/>
     </row>
+    <row r="30" spans="3:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="N30" s="17"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="AN30" s="16"/>
+      <c r="AO30" s="16"/>
+      <c r="AP30" s="16"/>
+      <c r="AS30" s="14"/>
+    </row>
+    <row r="31" spans="3:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="N31" s="17"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="AN31" s="16"/>
+      <c r="AO31" s="16"/>
+      <c r="AP31" s="16"/>
+      <c r="AS31" s="14"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-    <hyperlink ref="C15" r:id="rId2"/>
+    <hyperlink ref="C16" r:id="rId1"/>
+    <hyperlink ref="C17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/docs/units.xlsx
+++ b/docs/units.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Units" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="164">
   <si>
     <t>фемто</t>
   </si>
@@ -384,9 +385,6 @@
     <t>http://www.bipm.org/utils/common/pdf/si-brochure-draft-2016b.pdf</t>
   </si>
   <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
     <t>Mcd</t>
   </si>
   <si>
@@ -457,9 +455,6 @@
   </si>
   <si>
     <t>cal</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <r>
@@ -489,9 +484,6 @@
   </si>
   <si>
     <t>mV</t>
-  </si>
-  <si>
-    <t>au</t>
   </si>
   <si>
     <t>Arbitr.Units</t>
@@ -562,12 +554,18 @@
   <si>
     <t>d</t>
   </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>dL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,6 +639,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -722,7 +727,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -814,6 +819,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,13 +1115,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT31"/>
+  <dimension ref="A1:AS31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,16 +1163,15 @@
     <col min="37" max="37" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.5703125" style="5" customWidth="1"/>
-    <col min="42" max="42" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.7109375" style="1"/>
-    <col min="45" max="45" width="6" style="3" customWidth="1"/>
-    <col min="46" max="16384" width="8.7109375" style="1"/>
+    <col min="40" max="40" width="12.5703125" style="5" customWidth="1"/>
+    <col min="41" max="41" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.7109375" style="1"/>
+    <col min="44" max="44" width="6" style="3" customWidth="1"/>
+    <col min="45" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C1" s="9" t="s">
         <v>19</v>
       </c>
@@ -1169,7 +1185,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>26</v>
@@ -1184,13 +1200,13 @@
         <v>43</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>31</v>
@@ -1267,26 +1283,23 @@
       <c r="AM1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AN1" s="4" t="s">
-        <v>121</v>
+      <c r="AN1" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="AO1" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP1" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AP1" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AQ1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="11" t="s">
         <v>24</v>
       </c>
@@ -1300,7 +1313,7 @@
         <v>87</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>117</v>
@@ -1321,10 +1334,10 @@
         <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>6</v>
@@ -1398,26 +1411,23 @@
       <c r="AM2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AN2" s="4" t="s">
-        <v>121</v>
+      <c r="AN2" s="26" t="s">
+        <v>156</v>
       </c>
       <c r="AO2" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP2" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AP2" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AQ2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +1438,7 @@
         <v>89</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>94</v>
@@ -1462,11 +1472,11 @@
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
+      <c r="AQ3" s="5"/>
       <c r="AR3" s="5"/>
       <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1477,7 +1487,7 @@
         <v>90</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>95</v>
@@ -1511,11 +1521,11 @@
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
+      <c r="AQ4" s="5"/>
       <c r="AR4" s="5"/>
       <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1526,7 +1536,7 @@
         <v>91</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>96</v>
@@ -1560,11 +1570,11 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
+      <c r="AQ5" s="5"/>
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1575,7 +1585,7 @@
         <v>92</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>97</v>
@@ -1609,11 +1619,11 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
+      <c r="AQ6" s="5"/>
       <c r="AR6" s="5"/>
       <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1624,7 +1634,7 @@
         <v>93</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>98</v>
@@ -1651,7 +1661,7 @@
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
@@ -1660,16 +1670,16 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
+      <c r="AQ7" s="5"/>
       <c r="AR7" s="5"/>
       <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="27"/>
@@ -1685,7 +1695,7 @@
       <c r="N8" s="28"/>
       <c r="O8" s="27"/>
       <c r="P8" s="32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="29"/>
       <c r="R8" s="29"/>
@@ -1712,18 +1722,17 @@
       <c r="AM8" s="27"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="31"/>
-      <c r="AP8" s="31"/>
-      <c r="AQ8" s="27"/>
+      <c r="AP8" s="27"/>
+      <c r="AQ8" s="31"/>
       <c r="AR8" s="31"/>
       <c r="AS8" s="31"/>
-      <c r="AT8" s="31"/>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="27"/>
@@ -1732,7 +1741,9 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="J9" s="36" t="s">
+        <v>163</v>
+      </c>
       <c r="K9" s="28"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1764,13 +1775,12 @@
       <c r="AM9" s="27"/>
       <c r="AN9" s="31"/>
       <c r="AO9" s="31"/>
-      <c r="AP9" s="31"/>
-      <c r="AQ9" s="27"/>
+      <c r="AP9" s="27"/>
+      <c r="AQ9" s="31"/>
       <c r="AR9" s="31"/>
       <c r="AS9" s="31"/>
-      <c r="AT9" s="31"/>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -1790,13 +1800,13 @@
         <v>87</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>117</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>28</v>
@@ -1811,10 +1821,10 @@
         <v>33</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>6</v>
@@ -1889,25 +1899,22 @@
         <v>83</v>
       </c>
       <c r="AN10" s="6" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AO10" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AQ10" s="5" t="s">
-        <v>86</v>
+      <c r="AP10" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ10" s="33" t="s">
+        <v>18</v>
       </c>
       <c r="AR10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS10" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1922,7 +1929,7 @@
         <v>34</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>88</v>
@@ -1943,12 +1950,12 @@
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5" t="s">
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1964,57 +1971,57 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="T12" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="U12" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="U12" s="8" t="s">
+      <c r="V12" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="V12" s="8" t="s">
+      <c r="W12" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="W12" s="8" t="s">
+      <c r="Y12" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="Y12" s="8" t="s">
+      <c r="Z12" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="Z12" s="8" t="s">
+      <c r="AA12" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AA12" s="8" t="s">
+      <c r="AB12" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="AB12" s="8" t="s">
+      <c r="AD12" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="AD12" s="8" t="s">
+      <c r="AE12" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="AE12" s="8" t="s">
+      <c r="AF12" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AF12" s="8" t="s">
+      <c r="AG12" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AG12" s="8" t="s">
+      <c r="AH12" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AH12" s="8" t="s">
+      <c r="AJ12" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="AJ12" s="8" t="s">
+      <c r="AK12" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AK12" s="8" t="s">
-        <v>137</v>
-      </c>
+      <c r="AQ12" s="5"/>
       <c r="AR12" s="5"/>
-      <c r="AS12" s="5"/>
-    </row>
-    <row r="14" spans="1:46" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="20" t="s">
         <v>118</v>
       </c>
@@ -2025,9 +2032,8 @@
       <c r="V14" s="21"/>
       <c r="AN14" s="22"/>
       <c r="AO14" s="22"/>
-      <c r="AP14" s="22"/>
-    </row>
-    <row r="15" spans="1:46" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="18" t="s">
         <v>120</v>
       </c>
@@ -2038,12 +2044,11 @@
       <c r="V15" s="21"/>
       <c r="AN15" s="22"/>
       <c r="AO15" s="22"/>
-      <c r="AP15" s="22"/>
-      <c r="AS15" s="19"/>
-    </row>
-    <row r="16" spans="1:46" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR15" s="19"/>
+    </row>
+    <row r="16" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
@@ -2053,12 +2058,11 @@
       <c r="V16" s="21"/>
       <c r="AN16" s="22"/>
       <c r="AO16" s="22"/>
-      <c r="AP16" s="22"/>
-      <c r="AS16" s="19"/>
-    </row>
-    <row r="17" spans="3:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR16" s="19"/>
+    </row>
+    <row r="17" spans="3:44" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
@@ -2068,10 +2072,9 @@
       <c r="V17" s="21"/>
       <c r="AN17" s="22"/>
       <c r="AO17" s="22"/>
-      <c r="AP17" s="22"/>
-      <c r="AS17" s="19"/>
-    </row>
-    <row r="18" spans="3:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR17" s="19"/>
+    </row>
+    <row r="18" spans="3:44" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
       <c r="N18" s="24"/>
@@ -2080,12 +2083,11 @@
       <c r="V18" s="21"/>
       <c r="AN18" s="22"/>
       <c r="AO18" s="22"/>
-      <c r="AP18" s="22"/>
-      <c r="AS18" s="19"/>
-    </row>
-    <row r="19" spans="3:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR18" s="19"/>
+    </row>
+    <row r="19" spans="3:44" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
@@ -2095,12 +2097,11 @@
       <c r="V19" s="21"/>
       <c r="AN19" s="22"/>
       <c r="AO19" s="22"/>
-      <c r="AP19" s="22"/>
-      <c r="AS19" s="19"/>
-    </row>
-    <row r="20" spans="3:45" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="AR19" s="19"/>
+    </row>
+    <row r="20" spans="3:44" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
@@ -2110,10 +2111,9 @@
       <c r="V20" s="21"/>
       <c r="AN20" s="22"/>
       <c r="AO20" s="22"/>
-      <c r="AP20" s="22"/>
-      <c r="AS20" s="19"/>
-    </row>
-    <row r="21" spans="3:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR20" s="19"/>
+    </row>
+    <row r="21" spans="3:44" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
       <c r="N21" s="24"/>
@@ -2122,10 +2122,9 @@
       <c r="V21" s="21"/>
       <c r="AN21" s="22"/>
       <c r="AO21" s="22"/>
-      <c r="AP21" s="22"/>
-      <c r="AS21" s="19"/>
-    </row>
-    <row r="22" spans="3:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR21" s="19"/>
+    </row>
+    <row r="22" spans="3:44" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="N22" s="17"/>
@@ -2134,10 +2133,9 @@
       <c r="V22" s="15"/>
       <c r="AN22" s="16"/>
       <c r="AO22" s="16"/>
-      <c r="AP22" s="16"/>
-      <c r="AS22" s="14"/>
-    </row>
-    <row r="23" spans="3:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR22" s="14"/>
+    </row>
+    <row r="23" spans="3:44" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="N23" s="17"/>
@@ -2146,10 +2144,9 @@
       <c r="V23" s="15"/>
       <c r="AN23" s="16"/>
       <c r="AO23" s="16"/>
-      <c r="AP23" s="16"/>
-      <c r="AS23" s="14"/>
-    </row>
-    <row r="24" spans="3:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR23" s="14"/>
+    </row>
+    <row r="24" spans="3:44" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="N24" s="17"/>
@@ -2158,10 +2155,9 @@
       <c r="V24" s="15"/>
       <c r="AN24" s="16"/>
       <c r="AO24" s="16"/>
-      <c r="AP24" s="16"/>
-      <c r="AS24" s="14"/>
-    </row>
-    <row r="25" spans="3:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR24" s="14"/>
+    </row>
+    <row r="25" spans="3:44" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="N25" s="17"/>
@@ -2170,10 +2166,9 @@
       <c r="V25" s="15"/>
       <c r="AN25" s="16"/>
       <c r="AO25" s="16"/>
-      <c r="AP25" s="16"/>
-      <c r="AS25" s="14"/>
-    </row>
-    <row r="26" spans="3:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR25" s="14"/>
+    </row>
+    <row r="26" spans="3:44" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="N26" s="17"/>
@@ -2182,10 +2177,9 @@
       <c r="V26" s="15"/>
       <c r="AN26" s="16"/>
       <c r="AO26" s="16"/>
-      <c r="AP26" s="16"/>
-      <c r="AS26" s="14"/>
-    </row>
-    <row r="27" spans="3:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR26" s="14"/>
+    </row>
+    <row r="27" spans="3:44" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="N27" s="17"/>
@@ -2194,10 +2188,9 @@
       <c r="V27" s="15"/>
       <c r="AN27" s="16"/>
       <c r="AO27" s="16"/>
-      <c r="AP27" s="16"/>
-      <c r="AS27" s="14"/>
-    </row>
-    <row r="28" spans="3:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR27" s="14"/>
+    </row>
+    <row r="28" spans="3:44" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="N28" s="17"/>
@@ -2206,10 +2199,9 @@
       <c r="V28" s="15"/>
       <c r="AN28" s="16"/>
       <c r="AO28" s="16"/>
-      <c r="AP28" s="16"/>
-      <c r="AS28" s="14"/>
-    </row>
-    <row r="29" spans="3:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR28" s="14"/>
+    </row>
+    <row r="29" spans="3:44" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="N29" s="17"/>
@@ -2218,10 +2210,9 @@
       <c r="V29" s="15"/>
       <c r="AN29" s="16"/>
       <c r="AO29" s="16"/>
-      <c r="AP29" s="16"/>
-      <c r="AS29" s="14"/>
-    </row>
-    <row r="30" spans="3:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR29" s="14"/>
+    </row>
+    <row r="30" spans="3:44" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="N30" s="17"/>
@@ -2230,10 +2221,9 @@
       <c r="V30" s="15"/>
       <c r="AN30" s="16"/>
       <c r="AO30" s="16"/>
-      <c r="AP30" s="16"/>
-      <c r="AS30" s="14"/>
-    </row>
-    <row r="31" spans="3:45" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR30" s="14"/>
+    </row>
+    <row r="31" spans="3:44" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="N31" s="17"/>
@@ -2242,8 +2232,7 @@
       <c r="V31" s="15"/>
       <c r="AN31" s="16"/>
       <c r="AO31" s="16"/>
-      <c r="AP31" s="16"/>
-      <c r="AS31" s="14"/>
+      <c r="AR31" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/docs/units.xlsx
+++ b/docs/units.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="166">
   <si>
     <t>фемто</t>
   </si>
@@ -559,6 +559,12 @@
   </si>
   <si>
     <t>dL</t>
+  </si>
+  <si>
+    <t>mS</t>
+  </si>
+  <si>
+    <t>uS</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1127,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1614,9 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
+      <c r="AB6" s="33" t="s">
+        <v>165</v>
+      </c>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
@@ -1657,7 +1665,9 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
+      <c r="AB7" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="6" t="s">
